--- a/Excel/SkillDamageEffectConfig.xlsx
+++ b/Excel/SkillDamageEffectConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -58,9 +58,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>黑火球术</t>
   </si>
   <si>
@@ -71,6 +68,12 @@
   </si>
   <si>
     <t>300+自身攻击力*0.4</t>
+  </si>
+  <si>
+    <t>炎爆</t>
+  </si>
+  <si>
+    <t>血红激光炮</t>
   </si>
 </sst>
 </file>
@@ -78,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -106,6 +109,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -120,6 +153,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -127,85 +214,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,23 +238,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,187 +267,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,9 +463,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,32 +511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -519,15 +522,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,151 +549,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,13 +1061,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1132,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>13</v>
@@ -1146,27 +1149,67 @@
         <v>1001</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F6" s="1">
         <v>100</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1" t="s">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:8">
+      <c r="C7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:8">
+      <c r="C8" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E7 E8">
       <formula1>"技能目标,自身"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6 G7 G8">
       <formula1>"魔法伤害,物理伤害,真实伤害"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SkillDamageEffectConfig.xlsx
+++ b/Excel/SkillDamageEffectConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="8430"/>
+    <workbookView windowWidth="31050" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -109,6 +109,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -116,9 +130,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,6 +167,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -137,9 +191,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,70 +207,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +230,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -237,9 +238,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,13 +267,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,7 +381,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,157 +405,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +458,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,6 +520,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -496,51 +550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -549,25 +558,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,28 +579,34 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,100 +615,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
